--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H2">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J2">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N2">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P2">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q2">
-        <v>70.86802664075556</v>
+        <v>83.47178427927645</v>
       </c>
       <c r="R2">
-        <v>637.8122397668</v>
+        <v>751.246058513488</v>
       </c>
       <c r="S2">
-        <v>0.0155204166165211</v>
+        <v>0.01582718836458743</v>
       </c>
       <c r="T2">
-        <v>0.0155204166165211</v>
+        <v>0.01582718836458743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H3">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J3">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.821884</v>
       </c>
       <c r="O3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P3">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q3">
-        <v>65.46842620192</v>
+        <v>72.60834932536399</v>
       </c>
       <c r="R3">
-        <v>589.21583581728</v>
+        <v>653.475143928276</v>
       </c>
       <c r="S3">
-        <v>0.01433787983165622</v>
+        <v>0.01376735901283003</v>
       </c>
       <c r="T3">
-        <v>0.01433787983165622</v>
+        <v>0.01376735901283003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H4">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J4">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N4">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P4">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q4">
-        <v>15.03833934126222</v>
+        <v>16.72580229763189</v>
       </c>
       <c r="R4">
-        <v>135.34505407136</v>
+        <v>150.532220678687</v>
       </c>
       <c r="S4">
-        <v>0.003293463961966484</v>
+        <v>0.003171400082065718</v>
       </c>
       <c r="T4">
-        <v>0.003293463961966485</v>
+        <v>0.003171400082065718</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.983973333333334</v>
+        <v>6.636579666666667</v>
       </c>
       <c r="H5">
-        <v>17.95192</v>
+        <v>19.909739</v>
       </c>
       <c r="I5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="J5">
-        <v>0.1291745374956022</v>
+        <v>0.1201574291771603</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N5">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P5">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q5">
-        <v>438.4511635704357</v>
+        <v>460.8982177849015</v>
       </c>
       <c r="R5">
-        <v>3946.06047213392</v>
+        <v>4148.083960064114</v>
       </c>
       <c r="S5">
-        <v>0.09602277708545842</v>
+        <v>0.08739148171767712</v>
       </c>
       <c r="T5">
-        <v>0.09602277708545842</v>
+        <v>0.08739148171767713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.790546</v>
       </c>
       <c r="I6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J6">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N6">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P6">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q6">
-        <v>3.120804626398888</v>
+        <v>3.314372186136889</v>
       </c>
       <c r="R6">
-        <v>28.08724163759</v>
+        <v>29.829349675232</v>
       </c>
       <c r="S6">
-        <v>0.0006834702513449419</v>
+        <v>0.0006284422137764406</v>
       </c>
       <c r="T6">
-        <v>0.0006834702513449419</v>
+        <v>0.0006284422137764406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.790546</v>
       </c>
       <c r="I7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J7">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.821884</v>
       </c>
       <c r="O7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P7">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q7">
         <v>2.883023234296</v>
@@ -883,10 +883,10 @@
         <v>25.947209108664</v>
       </c>
       <c r="S7">
-        <v>0.000631395056873944</v>
+        <v>0.0005466536049596999</v>
       </c>
       <c r="T7">
-        <v>0.0006313950568739441</v>
+        <v>0.0005466536049596999</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.790546</v>
       </c>
       <c r="I8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J8">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N8">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P8">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q8">
-        <v>0.6622410869075555</v>
+        <v>0.6641230255797778</v>
       </c>
       <c r="R8">
-        <v>5.960169782167999</v>
+        <v>5.977107230218</v>
       </c>
       <c r="S8">
-        <v>0.0001450337769596097</v>
+        <v>0.0001259251891386786</v>
       </c>
       <c r="T8">
-        <v>0.0001450337769596097</v>
+        <v>0.0001259251891386786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.790546</v>
       </c>
       <c r="I9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="J9">
-        <v>0.005688439672135256</v>
+        <v>0.00477103065019021</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N9">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P9">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q9">
-        <v>19.30800792093289</v>
+        <v>18.30065388988689</v>
       </c>
       <c r="R9">
-        <v>173.772071288396</v>
+        <v>164.705885008982</v>
       </c>
       <c r="S9">
-        <v>0.00422854058695676</v>
+        <v>0.003470009642315391</v>
       </c>
       <c r="T9">
-        <v>0.00422854058695676</v>
+        <v>0.003470009642315391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H10">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J10">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N10">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P10">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q10">
-        <v>6.502048042719443</v>
+        <v>3.533766246065777</v>
       </c>
       <c r="R10">
-        <v>58.518432384475</v>
+        <v>31.803896214592</v>
       </c>
       <c r="S10">
-        <v>0.001423977769201864</v>
+        <v>0.0006700417931139123</v>
       </c>
       <c r="T10">
-        <v>0.001423977769201864</v>
+        <v>0.0006700417931139123</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H11">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J11">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.821884</v>
       </c>
       <c r="O11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P11">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q11">
-        <v>6.006641818939999</v>
+        <v>3.073864255375999</v>
       </c>
       <c r="R11">
-        <v>54.05977637045999</v>
+        <v>27.664778298384</v>
       </c>
       <c r="S11">
-        <v>0.001315481577732457</v>
+        <v>0.0005828392072491822</v>
       </c>
       <c r="T11">
-        <v>0.001315481577732457</v>
+        <v>0.0005828392072491822</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H12">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J12">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N12">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P12">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q12">
-        <v>1.379747814557778</v>
+        <v>0.7080844875675555</v>
       </c>
       <c r="R12">
-        <v>12.41773033102</v>
+        <v>6.372760388107999</v>
       </c>
       <c r="S12">
-        <v>0.0003021709778406057</v>
+        <v>0.0001342607763753821</v>
       </c>
       <c r="T12">
-        <v>0.0003021709778406058</v>
+        <v>0.0001342607763753821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5490216666666666</v>
+        <v>0.2809586666666666</v>
       </c>
       <c r="H13">
-        <v>1.647065</v>
+        <v>0.842876</v>
       </c>
       <c r="I13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="J13">
-        <v>0.01185159356771833</v>
+        <v>0.005086847862502274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N13">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P13">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q13">
-        <v>40.22731639435445</v>
+        <v>19.51206121856578</v>
       </c>
       <c r="R13">
-        <v>362.04584754919</v>
+        <v>175.608550967092</v>
       </c>
       <c r="S13">
-        <v>0.008809963242943404</v>
+        <v>0.003699706085763797</v>
       </c>
       <c r="T13">
-        <v>0.008809963242943405</v>
+        <v>0.003699706085763797</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H14">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J14">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.84297166666667</v>
+        <v>12.57753066666667</v>
       </c>
       <c r="N14">
-        <v>35.528915</v>
+        <v>37.732592</v>
       </c>
       <c r="O14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="P14">
-        <v>0.1201507426883529</v>
+        <v>0.1317204310459389</v>
       </c>
       <c r="Q14">
-        <v>468.1313802679338</v>
+        <v>604.3669131412214</v>
       </c>
       <c r="R14">
-        <v>4213.182422411405</v>
+        <v>5439.302218270992</v>
       </c>
       <c r="S14">
-        <v>0.102522878051285</v>
+        <v>0.1145947586744611</v>
       </c>
       <c r="T14">
-        <v>0.102522878051285</v>
+        <v>0.1145947586744611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H15">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J15">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.821884</v>
       </c>
       <c r="O15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="P15">
-        <v>0.1109961770302011</v>
+        <v>0.1145776761962127</v>
       </c>
       <c r="Q15">
-        <v>432.4633572377319</v>
+        <v>525.7115842070759</v>
       </c>
       <c r="R15">
-        <v>3892.170215139588</v>
+        <v>4731.404257863684</v>
       </c>
       <c r="S15">
-        <v>0.09471142056393848</v>
+        <v>0.09968082437117377</v>
       </c>
       <c r="T15">
-        <v>0.0947114205639385</v>
+        <v>0.09968082437117376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H16">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J16">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.513102666666666</v>
+        <v>2.520244333333333</v>
       </c>
       <c r="N16">
-        <v>7.539307999999999</v>
+        <v>7.560733</v>
       </c>
       <c r="O16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="P16">
-        <v>0.02549623188763971</v>
+        <v>0.02639370785296846</v>
       </c>
       <c r="Q16">
-        <v>99.33843069243954</v>
+        <v>121.1010593784537</v>
       </c>
       <c r="R16">
-        <v>894.045876231956</v>
+        <v>1089.909534406083</v>
       </c>
       <c r="S16">
-        <v>0.02175556317087301</v>
+        <v>0.02296212180538868</v>
       </c>
       <c r="T16">
-        <v>0.02175556317087301</v>
+        <v>0.02296212180538868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.52820233333333</v>
+        <v>48.051317</v>
       </c>
       <c r="H17">
-        <v>118.584607</v>
+        <v>144.153951</v>
       </c>
       <c r="I17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101473</v>
       </c>
       <c r="J17">
-        <v>0.8532854292645441</v>
+        <v>0.8699846923101472</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>73.27090866666667</v>
+        <v>69.44815566666666</v>
       </c>
       <c r="N17">
-        <v>219.812726</v>
+        <v>208.344467</v>
       </c>
       <c r="O17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="P17">
-        <v>0.7433568483938062</v>
+        <v>0.7273081849048799</v>
       </c>
       <c r="Q17">
-        <v>2896.267302923187</v>
+        <v>3337.075343004346</v>
       </c>
       <c r="R17">
-        <v>26066.40572630868</v>
+        <v>30033.67808703912</v>
       </c>
       <c r="S17">
-        <v>0.6342955674784476</v>
+        <v>0.6327469874591237</v>
       </c>
       <c r="T17">
-        <v>0.6342955674784476</v>
+        <v>0.6327469874591236</v>
       </c>
     </row>
   </sheetData>
